--- a/material/formr_anonymity.xlsx
+++ b/material/formr_anonymity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caro\Documents\CFH\Lehre\WAF_Folien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hochschulefresenius1-my.sharepoint.com/personal/caroline_zygar-hoffmann_charlotte-fresenius-uni_de/Documents/Lehre/WAF/WAF_Folien/material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D631A9-4FBF-4FC5-8CA7-40C8BF057F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{63D631A9-4FBF-4FC5-8CA7-40C8BF057F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B7C29A0-708D-4354-86EE-35EE6716D938}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>Notes</t>
   </si>
@@ -76,9 +76,6 @@
     <t>note1</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>submit1</t>
   </si>
   <si>
@@ -118,21 +115,12 @@
     <t>gender_list</t>
   </si>
   <si>
-    <t>keine Angabe</t>
-  </si>
-  <si>
     <t>info</t>
   </si>
   <si>
     <t>Abschicken!</t>
   </si>
   <si>
-    <t>mc mc_bezstatus</t>
-  </si>
-  <si>
-    <t>bezstatus</t>
-  </si>
-  <si>
     <t>mc_bezstatus</t>
   </si>
   <si>
@@ -151,9 +139,6 @@
     <t>Single</t>
   </si>
   <si>
-    <t>Bitte geben Sie Ihren Beziehungsstatus an.</t>
-  </si>
-  <si>
     <t>Wohnen Sie in München?</t>
   </si>
   <si>
@@ -166,51 +151,126 @@
     <t>Keine Angabe</t>
   </si>
   <si>
+    <t>Nennen Sie eine peinliche Sache über sich, die Sie im Rahmen der Vorlesung preisgeben würden (kann, muss aber nicht wahrheitsgemäß sein).</t>
+  </si>
+  <si>
+    <t>Haben Sie schonmal etwas anderes als Psychologie studiert?</t>
+  </si>
+  <si>
+    <t>anderes/keine Angabe</t>
+  </si>
+  <si>
+    <t>studium</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>geschlecht</t>
+  </si>
+  <si>
     <t>&lt;font face="Helvetica"&gt;&lt;font size="4"&gt;&lt;center&gt;&lt;b&gt;Übung zur Deanonymisierung&lt;/b&gt;&lt;/font&gt;
-Mit Ausfüllen dieser Umfrage willigen Sie ein, dass die Antworten im Rahmen des Seminars geteilt werden. Die Antworten werden nach der nächsten Seminarsitzung gelöscht.</t>
-  </si>
-  <si>
-    <t>Nennen Sie eine peinliche Sache über sich, die Sie im Rahmen der Vorlesung preisgeben würden (kann, muss aber nicht wahrheitsgemäß sein).</t>
-  </si>
-  <si>
-    <t>Haben Sie an einer oder mehrerer Nachprüfungen teilgenommen?</t>
-  </si>
-  <si>
-    <t>Haben Sie schonmal etwas anderes als Psychologie studiert?</t>
-  </si>
-  <si>
-    <t>Haben Sie einen persönlichen Bezug zum Nahostkonflikt?</t>
-  </si>
-  <si>
-    <t>anderes/keine Angabe</t>
-  </si>
-  <si>
-    <t>studium</t>
-  </si>
-  <si>
-    <t>nachpruefung</t>
-  </si>
-  <si>
-    <t>alter</t>
-  </si>
-  <si>
-    <t>geschlecht</t>
-  </si>
-  <si>
-    <t>nahost</t>
-  </si>
-  <si>
-    <t>Nutzen Sie Instagram?</t>
-  </si>
-  <si>
-    <t>instagram</t>
+Mit Ausfüllen dieser Umfrage willigen Sie ein, dass die Antworten im Rahmen der Vorlesung geteilt werden. Die Antworten werden nach der nächsten Einheit gelöscht.</t>
+  </si>
+  <si>
+    <t>mc_button  liste_konsum</t>
+  </si>
+  <si>
+    <t>konsum</t>
+  </si>
+  <si>
+    <t>label_align_left</t>
+  </si>
+  <si>
+    <t>liste_konsum</t>
+  </si>
+  <si>
+    <t>Ich nutze kein TikTok</t>
+  </si>
+  <si>
+    <t>bis 1h</t>
+  </si>
+  <si>
+    <t>1h - 2h</t>
+  </si>
+  <si>
+    <t>2h - 3h</t>
+  </si>
+  <si>
+    <t>3h - 4h</t>
+  </si>
+  <si>
+    <t>ab 4h</t>
+  </si>
+  <si>
+    <t>Wie hoch schätzen sie Ihren täglichen TikTok Konsum?</t>
+  </si>
+  <si>
+    <t>select_one  demo_relStat</t>
+  </si>
+  <si>
+    <t>demo_relStat</t>
+  </si>
+  <si>
+    <t>Sind Sie verheiratet, oder leben Sie in einer Partnerschaft mit festem Freund bzw. fester Freundin, oder sind Sie zurzeit Single, also ohne feste Partnerschaft?</t>
+  </si>
+  <si>
+    <t>demo_relStat == "married" || demo_relStat == "relationship"</t>
+  </si>
+  <si>
+    <t>demo_relLive</t>
+  </si>
+  <si>
+    <t>Wohnen Sie mit Ihrem Partner/ Ihrer Partnerin zusammen?</t>
+  </si>
+  <si>
+    <t>married</t>
+  </si>
+  <si>
+    <t>verheiratet</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>Partnerschaft mit festem Freund bzw. fester Freundin</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>zurzeit Single, ohne feste Partnerschaft</t>
+  </si>
+  <si>
+    <t>kA</t>
+  </si>
+  <si>
+    <t>mc_haustierbesitz</t>
+  </si>
+  <si>
+    <t>Haben oder hatten Sie jemals ein Haustier?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text  </t>
+  </si>
+  <si>
+    <t>haustier</t>
+  </si>
+  <si>
+    <t>Was für ein Haustier haben/hatten Sie? (Hund, Katze….etc)</t>
+  </si>
+  <si>
+    <t>mc_haustierbesitz == 1</t>
+  </si>
+  <si>
+    <t>textarea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,12 +315,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -421,7 +475,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -435,9 +489,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -572,6 +623,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -837,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:K11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,7 +946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -899,7 +954,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -910,175 +965,173 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
         <v>26</v>
       </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" t="s">
-        <v>29</v>
+      <c r="D9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
         <v>26</v>
-      </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
         <v>26</v>
-      </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1094,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD9"/>
+      <selection activeCell="A28" sqref="A28:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,13 +1172,13 @@
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1134,7 +1187,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1143,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1158,13 +1211,13 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="7">
+        <v>30</v>
+      </c>
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
+      <c r="C7" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1172,7 +1225,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1180,7 +1233,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1188,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,7 +1249,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1204,7 +1257,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1212,8 +1265,107 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
